--- a/w.xlsx
+++ b/w.xlsx
@@ -79,10 +79,10 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -390,34 +390,34 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -425,11 +425,11 @@
       <c r="A3" s="1">
         <v>45700</v>
       </c>
-      <c r="B3" s="4">
-        <v>6754</v>
-      </c>
-      <c r="C3" s="4">
-        <v>6220</v>
+      <c r="B3" s="3">
+        <v>11100</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10550</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">

--- a/w.xlsx
+++ b/w.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -436,15 +436,33 @@
       <c r="A4" s="1">
         <v>45701</v>
       </c>
+      <c r="B4" s="3">
+        <v>17000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>16000</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>45702</v>
       </c>
+      <c r="B5" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2000</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>45703</v>
+      </c>
+      <c r="B6" s="3">
+        <v>16000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6600</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">

--- a/w.xlsx
+++ b/w.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -468,6 +468,12 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>45704</v>
+      </c>
+      <c r="B7" s="3">
+        <v>14000</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4200</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">

--- a/w.xlsx
+++ b/w.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Дата</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Оборот $</t>
+  </si>
+  <si>
+    <t>10000+</t>
   </si>
 </sst>
 </file>
@@ -390,13 +393,13 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -500,15 +503,24 @@
       <c r="A12" s="1">
         <v>45709</v>
       </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>45710</v>
       </c>
+      <c r="B13" s="3">
+        <v>31500</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>45711</v>
+      </c>
+      <c r="B14" s="3">
+        <v>12178</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
